--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Ackr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06980766666666667</v>
+        <v>0.07886166666666666</v>
       </c>
       <c r="H2">
-        <v>0.209423</v>
+        <v>0.236585</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>0.01616559406222222</v>
+        <v>0.009020302582222223</v>
       </c>
       <c r="R2">
-        <v>0.14549034656</v>
+        <v>0.08118272324</v>
       </c>
       <c r="S2">
-        <v>0.2371078251520917</v>
+        <v>0.06805693029945724</v>
       </c>
       <c r="T2">
-        <v>0.2371078251520917</v>
+        <v>0.06805693029945722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,14 +584,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06980766666666667</v>
+        <v>0.07886166666666666</v>
       </c>
       <c r="H3">
-        <v>0.209423</v>
+        <v>0.236585</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
-        <v>0.05026817499755556</v>
+        <v>0.05678791814555556</v>
       </c>
       <c r="R3">
-        <v>0.4524135749780001</v>
+        <v>0.51109126331</v>
       </c>
       <c r="S3">
-        <v>0.7373052671097876</v>
+        <v>0.4284569560560385</v>
       </c>
       <c r="T3">
-        <v>0.7373052671097876</v>
+        <v>0.4284569560560385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,46 +661,356 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
+        <v>0.07886166666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.236585</v>
+      </c>
+      <c r="I4">
+        <v>0.5304501264551309</v>
+      </c>
+      <c r="J4">
+        <v>0.5304501264551309</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.100736</v>
+      </c>
+      <c r="O4">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P4">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q4">
+        <v>0.002648069617777778</v>
+      </c>
+      <c r="R4">
+        <v>0.02383262656</v>
+      </c>
+      <c r="S4">
+        <v>0.01997931751872719</v>
+      </c>
+      <c r="T4">
+        <v>0.01997931751872719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07886166666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.236585</v>
+      </c>
+      <c r="I5">
+        <v>0.5304501264551309</v>
+      </c>
+      <c r="J5">
+        <v>0.5304501264551309</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.023457</v>
+      </c>
+      <c r="N5">
+        <v>0.070371</v>
+      </c>
+      <c r="O5">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P5">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q5">
+        <v>0.001849858115</v>
+      </c>
+      <c r="R5">
+        <v>0.016648723035</v>
+      </c>
+      <c r="S5">
+        <v>0.01395692258090803</v>
+      </c>
+      <c r="T5">
+        <v>0.01395692258090803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
         <v>0.06980766666666667</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>0.209423</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02498966666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.07496900000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="P4">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="Q4">
-        <v>0.001744470320777778</v>
-      </c>
-      <c r="R4">
-        <v>0.015700232887</v>
-      </c>
-      <c r="S4">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="T4">
-        <v>0.02558690773812063</v>
+      <c r="I6">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J6">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.343144</v>
+      </c>
+      <c r="O6">
+        <v>0.128300337591142</v>
+      </c>
+      <c r="P6">
+        <v>0.1283003375911419</v>
+      </c>
+      <c r="Q6">
+        <v>0.007984693990222223</v>
+      </c>
+      <c r="R6">
+        <v>0.07186224591199999</v>
+      </c>
+      <c r="S6">
+        <v>0.06024340729168474</v>
+      </c>
+      <c r="T6">
+        <v>0.06024340729168472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06980766666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.209423</v>
+      </c>
+      <c r="I7">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J7">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.160286</v>
+      </c>
+      <c r="O7">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P7">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q7">
+        <v>0.05026817499755556</v>
+      </c>
+      <c r="R7">
+        <v>0.4524135749780001</v>
+      </c>
+      <c r="S7">
+        <v>0.3792663994256769</v>
+      </c>
+      <c r="T7">
+        <v>0.3792663994256768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06980766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.209423</v>
+      </c>
+      <c r="I8">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J8">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.100736</v>
+      </c>
+      <c r="O8">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P8">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q8">
+        <v>0.002344048369777778</v>
+      </c>
+      <c r="R8">
+        <v>0.021096435328</v>
+      </c>
+      <c r="S8">
+        <v>0.0176855194231435</v>
+      </c>
+      <c r="T8">
+        <v>0.0176855194231435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06980766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.209423</v>
+      </c>
+      <c r="I9">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J9">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.023457</v>
+      </c>
+      <c r="N9">
+        <v>0.070371</v>
+      </c>
+      <c r="O9">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P9">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q9">
+        <v>0.001637478437</v>
+      </c>
+      <c r="R9">
+        <v>0.014737305933</v>
+      </c>
+      <c r="S9">
+        <v>0.01235454740436419</v>
+      </c>
+      <c r="T9">
+        <v>0.01235454740436419</v>
       </c>
     </row>
   </sheetData>
